--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Romania_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Romania_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3486,16 +3486,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>260073400000</v>
+        <v>261572700000</v>
       </c>
       <c r="D122" t="n">
-        <v>260073400000</v>
+        <v>261572700000</v>
       </c>
       <c r="E122" t="n">
-        <v>260073400000</v>
+        <v>261572700000</v>
       </c>
       <c r="F122" t="n">
-        <v>260073400000</v>
+        <v>261572700000</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>259066900000</v>
+        <v>259192800000</v>
       </c>
       <c r="D123" t="n">
-        <v>259066900000</v>
+        <v>259192800000</v>
       </c>
       <c r="E123" t="n">
-        <v>259066900000</v>
+        <v>259192800000</v>
       </c>
       <c r="F123" t="n">
-        <v>259066900000</v>
+        <v>259192800000</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -3536,16 +3536,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>258475600000</v>
+        <v>258559200000</v>
       </c>
       <c r="D124" t="n">
-        <v>258475600000</v>
+        <v>258559200000</v>
       </c>
       <c r="E124" t="n">
-        <v>258475600000</v>
+        <v>258559200000</v>
       </c>
       <c r="F124" t="n">
-        <v>258475600000</v>
+        <v>258559200000</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -3561,16 +3561,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>255275100000</v>
+        <v>255274400000</v>
       </c>
       <c r="D125" t="n">
-        <v>255275100000</v>
+        <v>255274400000</v>
       </c>
       <c r="E125" t="n">
-        <v>255275100000</v>
+        <v>255274400000</v>
       </c>
       <c r="F125" t="n">
-        <v>255275100000</v>
+        <v>255274400000</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>263615300000</v>
+        <v>263647500000</v>
       </c>
       <c r="D131" t="n">
-        <v>263615300000</v>
+        <v>263647500000</v>
       </c>
       <c r="E131" t="n">
-        <v>263615300000</v>
+        <v>263647500000</v>
       </c>
       <c r="F131" t="n">
-        <v>263615300000</v>
+        <v>263647500000</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -3786,16 +3786,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>286171600000</v>
+        <v>286126300000</v>
       </c>
       <c r="D134" t="n">
-        <v>286171600000</v>
+        <v>286126300000</v>
       </c>
       <c r="E134" t="n">
-        <v>286171600000</v>
+        <v>286126300000</v>
       </c>
       <c r="F134" t="n">
-        <v>286171600000</v>
+        <v>286126300000</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>283928100000</v>
+        <v>283933800000</v>
       </c>
       <c r="D135" t="n">
-        <v>283928100000</v>
+        <v>283933800000</v>
       </c>
       <c r="E135" t="n">
-        <v>283928100000</v>
+        <v>283933800000</v>
       </c>
       <c r="F135" t="n">
-        <v>283928100000</v>
+        <v>283933800000</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -3836,16 +3836,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>283622900000</v>
+        <v>283623100000</v>
       </c>
       <c r="D136" t="n">
-        <v>283622900000</v>
+        <v>283623100000</v>
       </c>
       <c r="E136" t="n">
-        <v>283622900000</v>
+        <v>283623100000</v>
       </c>
       <c r="F136" t="n">
-        <v>283622900000</v>
+        <v>283623100000</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>280654700000</v>
+        <v>280655000000</v>
       </c>
       <c r="D137" t="n">
-        <v>280654700000</v>
+        <v>280655000000</v>
       </c>
       <c r="E137" t="n">
-        <v>280654700000</v>
+        <v>280655000000</v>
       </c>
       <c r="F137" t="n">
-        <v>280654700000</v>
+        <v>280655000000</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>295607800000</v>
+        <v>295604600000</v>
       </c>
       <c r="D142" t="n">
-        <v>295607800000</v>
+        <v>295604600000</v>
       </c>
       <c r="E142" t="n">
-        <v>295607800000</v>
+        <v>295604600000</v>
       </c>
       <c r="F142" t="n">
-        <v>295607800000</v>
+        <v>295604600000</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4011,16 +4011,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>295925700000</v>
+        <v>295922500000</v>
       </c>
       <c r="D143" t="n">
-        <v>295925700000</v>
+        <v>295922500000</v>
       </c>
       <c r="E143" t="n">
-        <v>295925700000</v>
+        <v>295922500000</v>
       </c>
       <c r="F143" t="n">
-        <v>295925700000</v>
+        <v>295922500000</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>296520200000</v>
+        <v>296506400000</v>
       </c>
       <c r="D144" t="n">
-        <v>296520200000</v>
+        <v>296506400000</v>
       </c>
       <c r="E144" t="n">
-        <v>296520200000</v>
+        <v>296506400000</v>
       </c>
       <c r="F144" t="n">
-        <v>296520200000</v>
+        <v>296506400000</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4086,16 +4086,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>314053200000</v>
+        <v>314026000000</v>
       </c>
       <c r="D146" t="n">
-        <v>314053200000</v>
+        <v>314026000000</v>
       </c>
       <c r="E146" t="n">
-        <v>314053200000</v>
+        <v>314026000000</v>
       </c>
       <c r="F146" t="n">
-        <v>314053200000</v>
+        <v>314026000000</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4111,16 +4111,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>309775700000</v>
+        <v>309824800000</v>
       </c>
       <c r="D147" t="n">
-        <v>309775700000</v>
+        <v>309824800000</v>
       </c>
       <c r="E147" t="n">
-        <v>309775700000</v>
+        <v>309824800000</v>
       </c>
       <c r="F147" t="n">
-        <v>309775700000</v>
+        <v>309824800000</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -4136,16 +4136,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>312162300000</v>
+        <v>311655400000</v>
       </c>
       <c r="D148" t="n">
-        <v>312162300000</v>
+        <v>311655400000</v>
       </c>
       <c r="E148" t="n">
-        <v>312162300000</v>
+        <v>311655400000</v>
       </c>
       <c r="F148" t="n">
-        <v>312162300000</v>
+        <v>311655400000</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>315022100000</v>
+        <v>314511600000</v>
       </c>
       <c r="D149" t="n">
-        <v>315022100000</v>
+        <v>314511600000</v>
       </c>
       <c r="E149" t="n">
-        <v>315022100000</v>
+        <v>314511600000</v>
       </c>
       <c r="F149" t="n">
-        <v>315022100000</v>
+        <v>314511600000</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>319043500000</v>
+        <v>318498700000</v>
       </c>
       <c r="D150" t="n">
-        <v>319043500000</v>
+        <v>318498700000</v>
       </c>
       <c r="E150" t="n">
-        <v>319043500000</v>
+        <v>318498700000</v>
       </c>
       <c r="F150" t="n">
-        <v>319043500000</v>
+        <v>318498700000</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4211,16 +4211,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>321160200000</v>
+        <v>320618400000</v>
       </c>
       <c r="D151" t="n">
-        <v>321160200000</v>
+        <v>320618400000</v>
       </c>
       <c r="E151" t="n">
-        <v>321160200000</v>
+        <v>320618400000</v>
       </c>
       <c r="F151" t="n">
-        <v>321160200000</v>
+        <v>320618400000</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4236,16 +4236,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>321638500000</v>
+        <v>321076200000</v>
       </c>
       <c r="D152" t="n">
-        <v>321638500000</v>
+        <v>321076200000</v>
       </c>
       <c r="E152" t="n">
-        <v>321638500000</v>
+        <v>321076200000</v>
       </c>
       <c r="F152" t="n">
-        <v>321638500000</v>
+        <v>321076200000</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4261,16 +4261,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>324761500000</v>
+        <v>324218500000</v>
       </c>
       <c r="D153" t="n">
-        <v>324761500000</v>
+        <v>324218500000</v>
       </c>
       <c r="E153" t="n">
-        <v>324761500000</v>
+        <v>324218500000</v>
       </c>
       <c r="F153" t="n">
-        <v>324761500000</v>
+        <v>324218500000</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>330165800000</v>
+        <v>329607000000</v>
       </c>
       <c r="D154" t="n">
-        <v>330165800000</v>
+        <v>329607000000</v>
       </c>
       <c r="E154" t="n">
-        <v>330165800000</v>
+        <v>329607000000</v>
       </c>
       <c r="F154" t="n">
-        <v>330165800000</v>
+        <v>329607000000</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4311,16 +4311,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>332177500000</v>
+        <v>332065200000</v>
       </c>
       <c r="D155" t="n">
-        <v>332177500000</v>
+        <v>332065200000</v>
       </c>
       <c r="E155" t="n">
-        <v>332177500000</v>
+        <v>332065200000</v>
       </c>
       <c r="F155" t="n">
-        <v>332177500000</v>
+        <v>332065200000</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -4336,16 +4336,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>336835300000</v>
+        <v>336385900000</v>
       </c>
       <c r="D156" t="n">
-        <v>336835300000</v>
+        <v>336385900000</v>
       </c>
       <c r="E156" t="n">
-        <v>336835300000</v>
+        <v>336385900000</v>
       </c>
       <c r="F156" t="n">
-        <v>336835300000</v>
+        <v>336385900000</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -4361,16 +4361,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>339687800000</v>
+        <v>339280200000</v>
       </c>
       <c r="D157" t="n">
-        <v>339687800000</v>
+        <v>339280200000</v>
       </c>
       <c r="E157" t="n">
-        <v>339687800000</v>
+        <v>339280200000</v>
       </c>
       <c r="F157" t="n">
-        <v>339687800000</v>
+        <v>339280200000</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4386,16 +4386,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>350473800000</v>
+        <v>350004800000</v>
       </c>
       <c r="D158" t="n">
-        <v>350473800000</v>
+        <v>350004800000</v>
       </c>
       <c r="E158" t="n">
-        <v>350473800000</v>
+        <v>350004800000</v>
       </c>
       <c r="F158" t="n">
-        <v>350473800000</v>
+        <v>350004800000</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -4411,16 +4411,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>349808200000</v>
+        <v>348823700000</v>
       </c>
       <c r="D159" t="n">
-        <v>349808200000</v>
+        <v>348823700000</v>
       </c>
       <c r="E159" t="n">
-        <v>349808200000</v>
+        <v>348823700000</v>
       </c>
       <c r="F159" t="n">
-        <v>349808200000</v>
+        <v>348823700000</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -4436,16 +4436,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>353332100000</v>
+        <v>352411100000</v>
       </c>
       <c r="D160" t="n">
-        <v>353332100000</v>
+        <v>352411100000</v>
       </c>
       <c r="E160" t="n">
-        <v>353332100000</v>
+        <v>352411100000</v>
       </c>
       <c r="F160" t="n">
-        <v>353332100000</v>
+        <v>352411100000</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>351155100000</v>
+        <v>351238500000</v>
       </c>
       <c r="D161" t="n">
-        <v>351155100000</v>
+        <v>351238500000</v>
       </c>
       <c r="E161" t="n">
-        <v>351155100000</v>
+        <v>351238500000</v>
       </c>
       <c r="F161" t="n">
-        <v>351155100000</v>
+        <v>351238500000</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -4486,16 +4486,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>354604100000</v>
+        <v>354917800000</v>
       </c>
       <c r="D162" t="n">
-        <v>354604100000</v>
+        <v>354917800000</v>
       </c>
       <c r="E162" t="n">
-        <v>354604100000</v>
+        <v>354917800000</v>
       </c>
       <c r="F162" t="n">
-        <v>354604100000</v>
+        <v>354917800000</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>356165500000</v>
+        <v>356539500000</v>
       </c>
       <c r="D163" t="n">
-        <v>356165500000</v>
+        <v>356539500000</v>
       </c>
       <c r="E163" t="n">
-        <v>356165500000</v>
+        <v>356539500000</v>
       </c>
       <c r="F163" t="n">
-        <v>356165500000</v>
+        <v>356539500000</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -4536,16 +4536,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>362020100000</v>
+        <v>362385300000</v>
       </c>
       <c r="D164" t="n">
-        <v>362020100000</v>
+        <v>362385300000</v>
       </c>
       <c r="E164" t="n">
-        <v>362020100000</v>
+        <v>362385300000</v>
       </c>
       <c r="F164" t="n">
-        <v>362020100000</v>
+        <v>362385300000</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4561,16 +4561,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>359935200000</v>
+        <v>360221900000</v>
       </c>
       <c r="D165" t="n">
-        <v>359935200000</v>
+        <v>360221900000</v>
       </c>
       <c r="E165" t="n">
-        <v>359935200000</v>
+        <v>360221900000</v>
       </c>
       <c r="F165" t="n">
-        <v>359935200000</v>
+        <v>360221900000</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -4686,16 +4686,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>381161000000</v>
+        <v>381075300000</v>
       </c>
       <c r="D170" t="n">
-        <v>381161000000</v>
+        <v>381075300000</v>
       </c>
       <c r="E170" t="n">
-        <v>381161000000</v>
+        <v>381075300000</v>
       </c>
       <c r="F170" t="n">
-        <v>381161000000</v>
+        <v>381075300000</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -4711,16 +4711,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>382664200000</v>
+        <v>382602200000</v>
       </c>
       <c r="D171" t="n">
-        <v>382664200000</v>
+        <v>382602200000</v>
       </c>
       <c r="E171" t="n">
-        <v>382664200000</v>
+        <v>382602200000</v>
       </c>
       <c r="F171" t="n">
-        <v>382664200000</v>
+        <v>382602200000</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -4736,16 +4736,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>384993500000</v>
+        <v>384958100000</v>
       </c>
       <c r="D172" t="n">
-        <v>384993500000</v>
+        <v>384958100000</v>
       </c>
       <c r="E172" t="n">
-        <v>384993500000</v>
+        <v>384958100000</v>
       </c>
       <c r="F172" t="n">
-        <v>384993500000</v>
+        <v>384958100000</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>383058500000</v>
+        <v>383090000000</v>
       </c>
       <c r="D173" t="n">
-        <v>383058500000</v>
+        <v>383090000000</v>
       </c>
       <c r="E173" t="n">
-        <v>383058500000</v>
+        <v>383090000000</v>
       </c>
       <c r="F173" t="n">
-        <v>383058500000</v>
+        <v>383090000000</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>422628600000</v>
+        <v>422631600000</v>
       </c>
       <c r="D182" t="n">
-        <v>422628600000</v>
+        <v>422631600000</v>
       </c>
       <c r="E182" t="n">
-        <v>422628600000</v>
+        <v>422631600000</v>
       </c>
       <c r="F182" t="n">
-        <v>422628600000</v>
+        <v>422631600000</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5236,16 +5236,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>469279600000</v>
+        <v>469280100000</v>
       </c>
       <c r="D192" t="n">
-        <v>469279600000</v>
+        <v>469280100000</v>
       </c>
       <c r="E192" t="n">
-        <v>469279600000</v>
+        <v>469280100000</v>
       </c>
       <c r="F192" t="n">
-        <v>469279600000</v>
+        <v>469280100000</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -5286,16 +5286,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>487450500000</v>
+        <v>487349900000</v>
       </c>
       <c r="D194" t="n">
-        <v>487450500000</v>
+        <v>487349900000</v>
       </c>
       <c r="E194" t="n">
-        <v>487450500000</v>
+        <v>487349900000</v>
       </c>
       <c r="F194" t="n">
-        <v>487450500000</v>
+        <v>487349900000</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>490466500000</v>
+        <v>490302300000</v>
       </c>
       <c r="D195" t="n">
-        <v>490466500000</v>
+        <v>490302300000</v>
       </c>
       <c r="E195" t="n">
-        <v>490466500000</v>
+        <v>490302300000</v>
       </c>
       <c r="F195" t="n">
-        <v>490466500000</v>
+        <v>490302300000</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -5336,16 +5336,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>497102400000</v>
+        <v>496963100000</v>
       </c>
       <c r="D196" t="n">
-        <v>497102400000</v>
+        <v>496963100000</v>
       </c>
       <c r="E196" t="n">
-        <v>497102400000</v>
+        <v>496963100000</v>
       </c>
       <c r="F196" t="n">
-        <v>497102400000</v>
+        <v>496963100000</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -5361,16 +5361,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>499199200000</v>
+        <v>499199700000</v>
       </c>
       <c r="D197" t="n">
-        <v>499199200000</v>
+        <v>499199700000</v>
       </c>
       <c r="E197" t="n">
-        <v>499199200000</v>
+        <v>499199700000</v>
       </c>
       <c r="F197" t="n">
-        <v>499199200000</v>
+        <v>499199700000</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -5586,16 +5586,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>564423600000</v>
+        <v>564423000000</v>
       </c>
       <c r="D206" t="n">
-        <v>564423600000</v>
+        <v>564423000000</v>
       </c>
       <c r="E206" t="n">
-        <v>564423600000</v>
+        <v>564423000000</v>
       </c>
       <c r="F206" t="n">
-        <v>564423600000</v>
+        <v>564423000000</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -5686,16 +5686,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>569722700000</v>
+        <v>569711700000</v>
       </c>
       <c r="D210" t="n">
-        <v>569722700000</v>
+        <v>569711700000</v>
       </c>
       <c r="E210" t="n">
-        <v>569722700000</v>
+        <v>569711700000</v>
       </c>
       <c r="F210" t="n">
-        <v>569722700000</v>
+        <v>569711700000</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -5736,16 +5736,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>569291700000</v>
+        <v>569309400000</v>
       </c>
       <c r="D212" t="n">
-        <v>569291700000</v>
+        <v>569309400000</v>
       </c>
       <c r="E212" t="n">
-        <v>569291700000</v>
+        <v>569309400000</v>
       </c>
       <c r="F212" t="n">
-        <v>569291700000</v>
+        <v>569309400000</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -5811,16 +5811,16 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>581768701100</v>
+        <v>581768700000</v>
       </c>
       <c r="D215" t="n">
-        <v>581768701100</v>
+        <v>581768700000</v>
       </c>
       <c r="E215" t="n">
-        <v>581768701100</v>
+        <v>581768700000</v>
       </c>
       <c r="F215" t="n">
-        <v>581768701100</v>
+        <v>581768700000</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>603118500000</v>
+        <v>603199600000</v>
       </c>
       <c r="D218" t="n">
-        <v>603118500000</v>
+        <v>603199600000</v>
       </c>
       <c r="E218" t="n">
-        <v>603118500000</v>
+        <v>603199600000</v>
       </c>
       <c r="F218" t="n">
-        <v>603118500000</v>
+        <v>603199600000</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
@@ -5948,6 +5948,81 @@
         <v>612242300000</v>
       </c>
       <c r="G220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ROM2</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>613926400000</v>
+      </c>
+      <c r="D221" t="n">
+        <v>613926400000</v>
+      </c>
+      <c r="E221" t="n">
+        <v>613926400000</v>
+      </c>
+      <c r="F221" t="n">
+        <v>613926400000</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ROM2</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>618680400000</v>
+      </c>
+      <c r="D222" t="n">
+        <v>618680400000</v>
+      </c>
+      <c r="E222" t="n">
+        <v>618680400000</v>
+      </c>
+      <c r="F222" t="n">
+        <v>618680400000</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ROM2</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>624790700000</v>
+      </c>
+      <c r="D223" t="n">
+        <v>624790700000</v>
+      </c>
+      <c r="E223" t="n">
+        <v>624790700000</v>
+      </c>
+      <c r="F223" t="n">
+        <v>624790700000</v>
+      </c>
+      <c r="G223" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Romania_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Romania_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>603199600000</v>
+        <v>603042000000</v>
       </c>
       <c r="D218" t="n">
-        <v>603199600000</v>
+        <v>603042000000</v>
       </c>
       <c r="E218" t="n">
-        <v>603199600000</v>
+        <v>603042000000</v>
       </c>
       <c r="F218" t="n">
-        <v>603199600000</v>
+        <v>603042000000</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
@@ -5911,16 +5911,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>603696300000</v>
+        <v>603647900000</v>
       </c>
       <c r="D219" t="n">
-        <v>603696300000</v>
+        <v>603647900000</v>
       </c>
       <c r="E219" t="n">
-        <v>603696300000</v>
+        <v>603647900000</v>
       </c>
       <c r="F219" t="n">
-        <v>603696300000</v>
+        <v>603647900000</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -5936,16 +5936,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>612242300000</v>
+        <v>612183900000</v>
       </c>
       <c r="D220" t="n">
-        <v>612242300000</v>
+        <v>612183900000</v>
       </c>
       <c r="E220" t="n">
-        <v>612242300000</v>
+        <v>612183900000</v>
       </c>
       <c r="F220" t="n">
-        <v>612242300000</v>
+        <v>612183900000</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -6023,6 +6023,31 @@
         <v>624790700000</v>
       </c>
       <c r="G223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ROM2</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>624519300000</v>
+      </c>
+      <c r="D224" t="n">
+        <v>624519300000</v>
+      </c>
+      <c r="E224" t="n">
+        <v>624519300000</v>
+      </c>
+      <c r="F224" t="n">
+        <v>624519300000</v>
+      </c>
+      <c r="G224" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Romania_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Romania_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Romania_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Romania_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6051,6 +6051,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ROM2</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>622009300000</v>
+      </c>
+      <c r="D225" t="n">
+        <v>622009300000</v>
+      </c>
+      <c r="E225" t="n">
+        <v>622009300000</v>
+      </c>
+      <c r="F225" t="n">
+        <v>622009300000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ROM2</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>626029700000</v>
+      </c>
+      <c r="D226" t="n">
+        <v>626029700000</v>
+      </c>
+      <c r="E226" t="n">
+        <v>626029700000</v>
+      </c>
+      <c r="F226" t="n">
+        <v>626029700000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ROM2</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>640762400000</v>
+      </c>
+      <c r="D227" t="n">
+        <v>640762400000</v>
+      </c>
+      <c r="E227" t="n">
+        <v>640762400000</v>
+      </c>
+      <c r="F227" t="n">
+        <v>640762400000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Romania_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Romania_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5628,6 +5628,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>640861400000</v>
+      </c>
+      <c r="D228">
+        <v>640861400000</v>
+      </c>
+      <c r="E228">
+        <v>640861400000</v>
+      </c>
+      <c r="F228">
+        <v>640861400000</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
